--- a/resources/vanilla.data.xlsx
+++ b/resources/vanilla.data.xlsx
@@ -19,7 +19,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" guid="{4794240C-BC7A-4240-8A6E-4C0FBE1A76AC}">
+    <comment ref="D2" authorId="0" guid="{79001A63-0960-4F0A-8983-64399607D502}">
       <text>
         <t>BaseProductionTimeInSeconds</t>
       </text>
@@ -34,7 +34,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" guid="{ADE64F12-3B56-4B67-BDFA-EA94F649AF96}">
+    <comment ref="D2" authorId="0" guid="{DF65E1F5-2977-48E1-B584-211918089B62}">
       <text>
         <t>BaseProductionTimeInSeconds</t>
       </text>
@@ -76,129 +76,129 @@
     <t>Textures\GUI\Icons\ingot\cobalt_ingot.dds</t>
   </si>
   <si>
+    <t>GoldOreToIngot</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_GoldIngot</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\ingot\gold_ingot.dds</t>
+  </si>
+  <si>
+    <t>IronOreToIngot</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_IronIngot</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\ingot\iron_ingot.dds</t>
+  </si>
+  <si>
+    <t>MagnesiumOreToIngot</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_MagnesiumPowder</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\ingot\magnesium_ingot.dds</t>
+  </si>
+  <si>
+    <t>NickelOreToIngot</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_NickelIngot</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\ingot\nickel_ingot.dds</t>
+  </si>
+  <si>
+    <t>PlatinumOreToIngot</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_PlatinumIngot</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\ingot\platinum_ingot.dds</t>
+  </si>
+  <si>
+    <t>Position0010_StoneOreToIngotBasic</t>
+  </si>
+  <si>
+    <t>DisplayName_BlueprintClass_Ingots</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\ingot\ingot_class.dds</t>
+  </si>
+  <si>
+    <t>SiliconOreToIngot</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_SiliconWafer</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\ingot\silicon_ingot.dds</t>
+  </si>
+  <si>
+    <t>SilverOreToIngot</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_SilverIngot</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\ingot\silver_ingot.dds</t>
+  </si>
+  <si>
+    <t>StoneOreToIngot</t>
+  </si>
+  <si>
+    <t>StoneOreToIngot_Deconstruction</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_Gravel</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\ingot\gravel_ingot.dds</t>
+  </si>
+  <si>
+    <t>UraniumOreToIngot</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_UraniumIngot</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\ingot\uranium_ingot.dds</t>
+  </si>
+  <si>
     <t>Ingot</t>
   </si>
   <si>
     <t>Cobalt</t>
   </si>
   <si>
-    <t>GoldOreToIngot</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_GoldIngot</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\ingot\gold_ingot.dds</t>
-  </si>
-  <si>
     <t>Gold</t>
   </si>
   <si>
-    <t>IronOreToIngot</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_IronIngot</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\ingot\iron_ingot.dds</t>
-  </si>
-  <si>
     <t>Iron</t>
   </si>
   <si>
-    <t>MagnesiumOreToIngot</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_MagnesiumPowder</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\ingot\magnesium_ingot.dds</t>
-  </si>
-  <si>
     <t>Magnesium</t>
   </si>
   <si>
-    <t>NickelOreToIngot</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_NickelIngot</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\ingot\nickel_ingot.dds</t>
-  </si>
-  <si>
     <t>Nickel</t>
   </si>
   <si>
-    <t>PlatinumOreToIngot</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_PlatinumIngot</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\ingot\platinum_ingot.dds</t>
-  </si>
-  <si>
     <t>Platinum</t>
   </si>
   <si>
-    <t>Position0010_StoneOreToIngotBasic</t>
-  </si>
-  <si>
-    <t>DisplayName_BlueprintClass_Ingots</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\ingot\ingot_class.dds</t>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>Silver</t>
   </si>
   <si>
     <t>Stone</t>
   </si>
   <si>
-    <t>Silicon</t>
-  </si>
-  <si>
-    <t>SiliconOreToIngot</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_SiliconWafer</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\ingot\silicon_ingot.dds</t>
-  </si>
-  <si>
-    <t>SilverOreToIngot</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_SilverIngot</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\ingot\silver_ingot.dds</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>StoneOreToIngot</t>
-  </si>
-  <si>
-    <t>StoneOreToIngot_Deconstruction</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_Gravel</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\ingot\gravel_ingot.dds</t>
-  </si>
-  <si>
-    <t>UraniumOreToIngot</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_UraniumIngot</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\ingot\uranium_ingot.dds</t>
-  </si>
-  <si>
     <t>Uranium</t>
   </si>
   <si>
@@ -409,85 +409,85 @@
     <t>Textures\GUI\Icons\Items\ZoneChip_Item.dds</t>
   </si>
   <si>
+    <t>EngineerPlushie</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_EngineerPlushie</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\Cubes\Plushie.dds</t>
+  </si>
+  <si>
+    <t>SabiroidPlushie</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_SabiroidPlushie</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\Cubes\SabiroidPlushie.dds</t>
+  </si>
+  <si>
+    <t>PrototechFrame</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_PrototechPanel</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\component\PrototechPanel_Component.dds</t>
+  </si>
+  <si>
+    <t>PrototechPanel</t>
+  </si>
+  <si>
+    <t>PrototechCapacitor</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_PrototechCapacitor</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\component\PrototechCapacitor_Component.dds</t>
+  </si>
+  <si>
+    <t>PrototechPropulsionUnit</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_PrototechPropulsionUnit</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\component\PrototechThrusterComponent.dds</t>
+  </si>
+  <si>
+    <t>PrototechMachinery</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_PrototechMachinery</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\component\PrototechMachinery_Icon.dds</t>
+  </si>
+  <si>
+    <t>PrototechCircuitry</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_PrototechCircuitry</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\component\prototech_circuitry_component.dds</t>
+  </si>
+  <si>
+    <t>PrototechCoolingUnit</t>
+  </si>
+  <si>
+    <t>DisplayName_Item_PrototechCoolingUnit</t>
+  </si>
+  <si>
+    <t>Textures\GUI\Icons\component\PrototechCoolingUnit.dds</t>
+  </si>
+  <si>
     <t>Component</t>
   </si>
   <si>
-    <t>EngineerPlushie</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_EngineerPlushie</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\Cubes\Plushie.dds</t>
-  </si>
-  <si>
-    <t>SabiroidPlushie</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_SabiroidPlushie</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\Cubes\SabiroidPlushie.dds</t>
-  </si>
-  <si>
-    <t>PrototechFrame</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_PrototechPanel</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\component\PrototechPanel_Component.dds</t>
-  </si>
-  <si>
-    <t>PrototechPanel</t>
-  </si>
-  <si>
-    <t>PrototechCapacitor</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_PrototechCapacitor</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\component\PrototechCapacitor_Component.dds</t>
-  </si>
-  <si>
     <t>PrototechScrap</t>
-  </si>
-  <si>
-    <t>PrototechPropulsionUnit</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_PrototechPropulsionUnit</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\component\PrototechThrusterComponent.dds</t>
-  </si>
-  <si>
-    <t>PrototechMachinery</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_PrototechMachinery</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\component\PrototechMachinery_Icon.dds</t>
-  </si>
-  <si>
-    <t>PrototechCircuitry</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_PrototechCircuitry</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\component\prototech_circuitry_component.dds</t>
-  </si>
-  <si>
-    <t>PrototechCoolingUnit</t>
-  </si>
-  <si>
-    <t>DisplayName_Item_PrototechCoolingUnit</t>
-  </si>
-  <si>
-    <t>Textures\GUI\Icons\component\PrototechCoolingUnit.dds</t>
   </si>
   <si>
     <t>CubeBlocks_Armor.sbc</t>
@@ -9493,7 +9493,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9501,6 +9501,8 @@
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" hidden="1"/>
     <col min="3" max="3" hidden="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:15">
@@ -9508,34 +9510,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -9555,31 +9557,31 @@
         <v>4</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>51</v>
@@ -9612,13 +9614,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0.4</v>
@@ -9632,13 +9634,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0.05</v>
@@ -9652,13 +9654,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0.5</v>
@@ -9672,13 +9674,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0.66</v>
@@ -9692,13 +9694,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>3</v>
@@ -9710,15 +9712,15 @@
         <v>0.005</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -9733,21 +9735,21 @@
         <v>0.24</v>
       </c>
       <c r="L10" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N10" s="0" t="n">
         <v>1.4</v>
       </c>
-      <c r="M10" s="0" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0.6</v>
@@ -9755,19 +9757,19 @@
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:13">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
@@ -9775,19 +9777,19 @@
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="0" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>10</v>
@@ -9802,21 +9804,21 @@
         <v>2.4</v>
       </c>
       <c r="L13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="M13" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0.1</v>
@@ -9824,19 +9826,19 @@
       <c r="E14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="0" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>4</v>
@@ -9859,7 +9861,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9867,6 +9869,8 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" hidden="1"/>
     <col min="3" max="3" hidden="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:19">
@@ -9874,46 +9878,46 @@
         <v>5</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -9933,46 +9937,46 @@
         <v>4</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -9980,7 +9984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:12">
       <c r="A4" s="0" t="s">
         <v>52</v>
       </c>
@@ -9996,11 +10000,11 @@
       <c r="E4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:12">
       <c r="A5" s="0" t="s">
         <v>55</v>
       </c>
@@ -10016,11 +10020,11 @@
       <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:14">
       <c r="A6" s="0" t="s">
         <v>58</v>
       </c>
@@ -10036,17 +10040,17 @@
       <c r="E6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="J6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="0" t="s">
         <v>61</v>
       </c>
@@ -10062,11 +10066,11 @@
       <c r="E7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:12">
       <c r="A8" s="0" t="s">
         <v>64</v>
       </c>
@@ -10082,11 +10086,11 @@
       <c r="E8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:12">
       <c r="A9" s="0" t="s">
         <v>67</v>
       </c>
@@ -10102,11 +10106,11 @@
       <c r="E9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:12">
       <c r="A10" s="0" t="s">
         <v>70</v>
       </c>
@@ -10122,11 +10126,11 @@
       <c r="E10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:14">
       <c r="A11" s="0" t="s">
         <v>73</v>
       </c>
@@ -10142,14 +10146,14 @@
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:17">
       <c r="A12" s="0" t="s">
         <v>76</v>
       </c>
@@ -10165,14 +10169,14 @@
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0" t="n">
+      <c r="L12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:17">
       <c r="A13" s="0" t="s">
         <v>79</v>
       </c>
@@ -10188,11 +10192,11 @@
       <c r="E13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:17">
       <c r="A14" s="0" t="s">
         <v>82</v>
       </c>
@@ -10208,14 +10212,14 @@
       <c r="E14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:19">
       <c r="A15" s="0" t="s">
         <v>85</v>
       </c>
@@ -10231,17 +10235,17 @@
       <c r="E15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="R15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="K15" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="0" t="s">
         <v>88</v>
       </c>
@@ -10257,20 +10261,20 @@
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="J16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:18">
       <c r="A17" s="0" t="s">
         <v>91</v>
       </c>
@@ -10286,20 +10290,20 @@
       <c r="E17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="J17" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L17" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="H17" s="0" t="n">
-        <v>220</v>
-      </c>
-      <c r="K17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L17" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="0" t="s">
         <v>94</v>
       </c>
@@ -10315,17 +10319,17 @@
       <c r="E18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:17">
       <c r="A19" s="0" t="s">
         <v>97</v>
       </c>
@@ -10341,14 +10345,14 @@
       <c r="E19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="Q19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="0" t="s">
         <v>100</v>
       </c>
@@ -10364,14 +10368,14 @@
       <c r="E20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:17">
       <c r="A21" s="0" t="s">
         <v>103</v>
       </c>
@@ -10387,14 +10391,14 @@
       <c r="E21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="M21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="N21" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="0" t="s">
         <v>106</v>
       </c>
@@ -10410,14 +10414,14 @@
       <c r="E22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:17">
       <c r="A23" s="0" t="s">
         <v>109</v>
       </c>
@@ -10433,13 +10437,13 @@
       <c r="E23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" s="0" t="n">
+      <c r="N23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10459,14 +10463,14 @@
       <c r="E24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="K24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="L24" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="0" t="s">
         <v>115</v>
       </c>
@@ -10482,14 +10486,14 @@
       <c r="E25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" s="0" t="n">
+      <c r="L25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="0" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:9">
       <c r="A26" s="0" t="s">
         <v>118</v>
       </c>
@@ -10505,19 +10509,19 @@
       <c r="E26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C27" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>124</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>99999</v>
@@ -10525,19 +10529,19 @@
       <c r="E27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>127</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>99999</v>
@@ -10545,39 +10549,39 @@
       <c r="E28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q28" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C29" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>130</v>
-      </c>
       <c r="D29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>4</v>
@@ -10585,28 +10589,28 @@
       <c r="E30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="J30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="M30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H30" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>16</v>
@@ -10614,31 +10618,31 @@
       <c r="E31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="K31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L31" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="P31" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q31" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="R31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L31" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="S31" s="0" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>14</v>
@@ -10646,31 +10650,31 @@
       <c r="E32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="J32" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L32" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="H32" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M32" s="0" t="n">
+      <c r="O32" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>1.25</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:17">
       <c r="A33" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>141</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>12</v>
@@ -10678,31 +10682,31 @@
       <c r="E33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="K33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="N33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="P33" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Q33" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S33" s="0" t="n">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>144</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>11</v>
@@ -10710,31 +10714,31 @@
       <c r="E34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="K34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="O34" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q34" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S34" s="0" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>147</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>9</v>
@@ -10742,16 +10746,16 @@
       <c r="E35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="K35" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L35" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="L35" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M35" s="0" t="n">
+      <c r="O35" s="0" t="n">
         <v>3.25</v>
       </c>
-      <c r="S35" s="0" t="n">
+      <c r="P35" s="0" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -10841,31 +10845,31 @@
         <v>1244</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AH1" s="0" t="s">
         <v>2107</v>
@@ -20401,7 +20405,7 @@
         <v>1281</v>
       </c>
       <c r="C500" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y500" s="0" t="n">
         <v>1</v>
@@ -20415,7 +20419,7 @@
         <v>1283</v>
       </c>
       <c r="C501" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z501" s="0" t="n">
         <v>1</v>
@@ -36310,7 +36314,7 @@
         <v>3049</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -36372,7 +36376,7 @@
         <v>3050</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -36434,7 +36438,7 @@
         <v>3051</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2</v>
@@ -36496,7 +36500,7 @@
         <v>3052</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>3</v>
@@ -36558,7 +36562,7 @@
         <v>3053</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -36625,7 +36629,7 @@
         <v>3055</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>6</v>
@@ -36687,7 +36691,7 @@
         <v>3056</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>6</v>
@@ -36816,7 +36820,7 @@
         <v>3060</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>5</v>
@@ -36878,7 +36882,7 @@
         <v>3061</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>5</v>
@@ -36934,7 +36938,7 @@
         <v>3062</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>5</v>
@@ -36990,7 +36994,7 @@
         <v>3063</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>5</v>
@@ -37046,7 +37050,7 @@
         <v>3064</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>5</v>
@@ -37102,7 +37106,7 @@
         <v>3065</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>5</v>
@@ -37158,7 +37162,7 @@
         <v>3066</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>5</v>
@@ -37214,7 +37218,7 @@
         <v>3067</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -37270,7 +37274,7 @@
         <v>3068</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>3</v>
@@ -37326,7 +37330,7 @@
         <v>3069</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -37382,7 +37386,7 @@
         <v>3070</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
@@ -37438,7 +37442,7 @@
         <v>3071</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -37494,7 +37498,7 @@
         <v>3072</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -37550,7 +37554,7 @@
         <v>3073</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -37839,7 +37843,7 @@
         <v>3078</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>5</v>
@@ -37906,7 +37910,7 @@
         <v>3080</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>5</v>
@@ -37968,7 +37972,7 @@
         <v>3081</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -38030,7 +38034,7 @@
         <v>3082</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>5</v>
@@ -38092,7 +38096,7 @@
         <v>3083</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>5</v>
@@ -38154,7 +38158,7 @@
         <v>3084</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
@@ -38216,7 +38220,7 @@
         <v>3085</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
@@ -38278,7 +38282,7 @@
         <v>3086</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>5</v>
@@ -38526,7 +38530,7 @@
         <v>3089</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>1</v>
@@ -38588,7 +38592,7 @@
         <v>3090</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>1</v>
@@ -38650,7 +38654,7 @@
         <v>3091</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2</v>
@@ -38712,7 +38716,7 @@
         <v>3092</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>1</v>
@@ -38774,7 +38778,7 @@
         <v>3093</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>1</v>
@@ -38836,7 +38840,7 @@
         <v>3094</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>1</v>
@@ -38898,7 +38902,7 @@
         <v>3095</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>1</v>
@@ -38960,7 +38964,7 @@
         <v>3096</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>1</v>
@@ -39022,7 +39026,7 @@
         <v>3097</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>1</v>
@@ -39081,10 +39085,10 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>5</v>
@@ -39146,7 +39150,7 @@
         <v>3098</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>1</v>
@@ -39208,7 +39212,7 @@
         <v>3099</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>1</v>
@@ -39332,7 +39336,7 @@
         <v>3101</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2</v>
@@ -39394,7 +39398,7 @@
         <v>3102</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>5</v>
@@ -39456,7 +39460,7 @@
         <v>3103</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>1</v>
@@ -39518,7 +39522,7 @@
         <v>3104</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>2</v>
@@ -39580,7 +39584,7 @@
         <v>3105</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2</v>
@@ -39642,7 +39646,7 @@
         <v>3106</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>5</v>
@@ -39704,7 +39708,7 @@
         <v>3107</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>5</v>
@@ -39890,7 +39894,7 @@
         <v>3110</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>1</v>
@@ -39952,7 +39956,7 @@
         <v>3111</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>1</v>
@@ -40014,7 +40018,7 @@
         <v>3112</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>1</v>
